--- a/Experiment_Results/AnomalyGPT/test_goodsad.xlsx
+++ b/Experiment_Results/AnomalyGPT/test_goodsad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Georgia_Tech/Practicum/github/Experiment_Results/AnomalyGPT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Georgia_Tech/Practicum/results/AnomalyGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647F4C9-0D98-4847-829D-69AEA0063950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617FF25A-9575-F54D-8417-57C90268240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="4660" windowWidth="28800" windowHeight="16940" xr2:uid="{AA7B2648-A285-7644-B31C-44684A988508}"/>
+    <workbookView xWindow="21500" yWindow="4480" windowWidth="28800" windowHeight="16940" xr2:uid="{AA7B2648-A285-7644-B31C-44684A988508}"/>
   </bookViews>
   <sheets>
     <sheet name="unsupervised_on_default_config" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
